--- a/data/trans_dic/DCD_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,68; 32,81</t>
+          <t>25,89; 32,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,16; 50,7</t>
+          <t>44,83; 50,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,17; 42,91</t>
+          <t>38,26; 42,9</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,9; 14,16</t>
+          <t>11,02; 14,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,33; 23,87</t>
+          <t>18,33; 24,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,68; 18,62</t>
+          <t>15,77; 18,68</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,56; 10,76</t>
+          <t>6,61; 11,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,84; 23,64</t>
+          <t>17,93; 23,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,93; 16,64</t>
+          <t>13,06; 16,73</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,11; 15,64</t>
+          <t>13,16; 15,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,54; 28,92</t>
+          <t>24,56; 28,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,91; 22,29</t>
+          <t>19,98; 22,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DCD_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,89; 32,54</t>
+          <t>25,68; 32,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>44,83; 50,75</t>
+          <t>45,16; 50,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,26; 42,9</t>
+          <t>38,17; 42,91</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,02; 14,16</t>
+          <t>10,9; 14,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,33; 24,0</t>
+          <t>18,33; 23,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,77; 18,68</t>
+          <t>15,68; 18,62</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 11,06</t>
+          <t>6,56; 10,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,93; 23,51</t>
+          <t>17,84; 23,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,06; 16,73</t>
+          <t>12,93; 16,64</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,16; 15,67</t>
+          <t>13,11; 15,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,56; 28,8</t>
+          <t>24,54; 28,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,98; 22,28</t>
+          <t>19,91; 22,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DCD_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>47,74%</t>
+          <t>47,54%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>40,47%</t>
+          <t>39,91%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,68; 32,81</t>
+          <t>25,14; 32,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,16; 50,7</t>
+          <t>44,97; 50,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,17; 42,91</t>
+          <t>37,58; 42,22</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>20,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>15,77%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,9; 14,16</t>
+          <t>7,88; 13,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,33; 23,87</t>
+          <t>14,0; 23,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,68; 18,62</t>
+          <t>12,62; 17,7</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>20,33%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>14,47%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,56; 10,76</t>
+          <t>6,5; 10,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,84; 23,64</t>
+          <t>17,75; 23,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,93; 16,64</t>
+          <t>12,73; 16,39</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>25,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>19,85%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,11; 15,64</t>
+          <t>10,51; 14,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,54; 28,92</t>
+          <t>20,38; 28,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,91; 22,29</t>
+          <t>16,99; 21,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DCD_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,14; 32,42</t>
+          <t>25,23; 32,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>44,97; 50,35</t>
+          <t>44,71; 50,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37,58; 42,22</t>
+          <t>37,69; 42,17</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,88; 13,33</t>
+          <t>8,14; 13,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,0; 23,18</t>
+          <t>14,68; 23,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,62; 17,7</t>
+          <t>12,4; 17,68</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 10,68</t>
+          <t>6,51; 10,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,75; 23,59</t>
+          <t>17,48; 23,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,73; 16,39</t>
+          <t>12,75; 16,19</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,51; 14,97</t>
+          <t>10,6; 15,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,38; 28,23</t>
+          <t>20,69; 28,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,99; 21,37</t>
+          <t>17,38; 21,38</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolor crónico discapacitante (incluye Otro dolor crónico)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>921</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>147842</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>359163</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>507006</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>129935; 166436</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>337774; 380839</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>478853; 535781</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1024</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>259870</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>454141</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>714010</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>186435; 306627</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>328526; 518303</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>561287; 800648</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>54868</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>134263</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>189130</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>42100; 69208</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>115474; 152161</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>166714; 211607</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1641</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2216</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>462580</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>947567</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1410147</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>366010; 517940</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>755886; 1027227</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1235251; 1519430</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>